--- a/LoowooTech.Land.Zhoushan.Web/templates/舟山整理/土地征收-导出.xlsx
+++ b/LoowooTech.Land.Zhoushan.Web/templates/舟山整理/土地征收-导出.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19005" windowHeight="10950"/>
+    <workbookView windowWidth="19095" windowHeight="7830"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
   <si>
     <t>{Form=4}</t>
   </si>
@@ -33,6 +33,12 @@
     <t>{Node=37}</t>
   </si>
   <si>
+    <t>{Value=1}</t>
+  </si>
+  <si>
+    <t>{RateValue=1}</t>
+  </si>
+  <si>
     <t xml:space="preserve">    其中：{Node=68}</t>
   </si>
   <si>
@@ -42,9 +48,15 @@
     <t xml:space="preserve">    {Node=38}</t>
   </si>
   <si>
+    <t>{Value=5}</t>
+  </si>
+  <si>
     <t xml:space="preserve">    {Node=43}</t>
   </si>
   <si>
+    <t>{Value=7}</t>
+  </si>
+  <si>
     <t>分区土地征收情况（亩）</t>
   </si>
   <si>
@@ -52,6 +64,9 @@
   </si>
   <si>
     <t>{Area=1}</t>
+  </si>
+  <si>
+    <t>{Value=1 Node=37}</t>
   </si>
   <si>
     <t xml:space="preserve">    其中：{Area=2}</t>
@@ -88,7 +103,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,11 +119,56 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -117,7 +177,69 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -131,73 +253,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -206,48 +261,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -268,187 +290,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -471,6 +493,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -486,25 +519,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -527,11 +551,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -545,16 +567,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -563,8 +585,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -576,10 +598,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -588,16 +610,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -606,119 +628,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -734,13 +756,19 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1066,7 +1094,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="B11" sqref="B11:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1096,7 +1124,7 @@
       </c>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" ht="14.25" spans="1:4">
+    <row r="3" spans="1:4">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -1106,130 +1134,186 @@
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="B4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+      <c r="C5" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
+      <c r="A8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>6</v>
+      </c>
       <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" ht="14.25" spans="1:4">
+    <row r="10" spans="1:4">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="2"/>
     </row>
     <row r="11" ht="14.25" spans="1:4">
-      <c r="A11" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
+      <c r="A11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="D11" s="2"/>
     </row>
     <row r="12" ht="14.25" spans="1:4">
-      <c r="A12" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
+      <c r="A12" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="D12" s="2"/>
     </row>
     <row r="13" ht="14.25" spans="1:4">
-      <c r="A13" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
+      <c r="A13" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="D13" s="2"/>
     </row>
     <row r="14" ht="14.25" spans="1:4">
-      <c r="A14" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
+      <c r="A14" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="D14" s="2"/>
     </row>
     <row r="15" ht="14.25" spans="1:4">
-      <c r="A15" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
+      <c r="A15" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="D15" s="2"/>
     </row>
     <row r="16" ht="14.25" spans="1:4">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
+      <c r="C16" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="D16" s="2"/>
     </row>
     <row r="17" ht="14.25" spans="1:4">
-      <c r="A17" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
+      <c r="A17" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="D17" s="2"/>
     </row>
     <row r="18" ht="14.25" spans="1:4">
-      <c r="A18" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
+      <c r="A18" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="D18" s="2"/>
     </row>
     <row r="19" ht="15" spans="1:4">
-      <c r="A19" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
+      <c r="A19" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>6</v>
+      </c>
       <c r="D19" s="2"/>
     </row>
     <row r="20" spans="1:4">

--- a/LoowooTech.Land.Zhoushan.Web/templates/舟山整理/土地征收-导出.xlsx
+++ b/LoowooTech.Land.Zhoushan.Web/templates/舟山整理/土地征收-导出.xlsx
@@ -98,12 +98,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,27 +112,79 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
+      <name val="黑体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -141,81 +193,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,9 +208,31 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -245,11 +244,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -260,20 +281,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -290,25 +297,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -320,157 +465,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -493,17 +500,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -515,21 +511,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -552,8 +533,19 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -563,6 +555,30 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -581,15 +597,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -598,10 +605,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -610,16 +617,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -628,119 +635,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -756,19 +763,22 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1094,7 +1104,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:C19"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1131,7 +1141,7 @@
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -1143,7 +1153,7 @@
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -1155,7 +1165,7 @@
       <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -1167,7 +1177,7 @@
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -1182,136 +1192,136 @@
       <c r="A8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" ht="14.25" spans="1:4">
-      <c r="A11" s="8" t="s">
+    <row r="11" spans="1:4">
+      <c r="A11" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="9" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" ht="14.25" spans="1:4">
-      <c r="A12" s="8" t="s">
+    <row r="12" spans="1:4">
+      <c r="A12" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="9" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" ht="14.25" spans="1:4">
-      <c r="A13" s="8" t="s">
+    <row r="13" spans="1:4">
+      <c r="A13" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="9" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" ht="14.25" spans="1:4">
-      <c r="A14" s="8" t="s">
+    <row r="14" spans="1:4">
+      <c r="A14" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="9" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" ht="14.25" spans="1:4">
-      <c r="A15" s="8" t="s">
+    <row r="15" spans="1:4">
+      <c r="A15" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="9" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" ht="14.25" spans="1:4">
-      <c r="A16" s="8" t="s">
+    <row r="16" spans="1:4">
+      <c r="A16" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="9" t="s">
         <v>6</v>
       </c>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" ht="14.25" spans="1:4">
-      <c r="A17" s="8" t="s">
+    <row r="17" spans="1:4">
+      <c r="A17" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="9" t="s">
         <v>6</v>
       </c>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" ht="14.25" spans="1:4">
-      <c r="A18" s="8" t="s">
+    <row r="18" spans="1:4">
+      <c r="A18" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="9" t="s">
         <v>6</v>
       </c>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" ht="15" spans="1:4">
-      <c r="A19" s="9" t="s">
+    <row r="19" spans="1:4">
+      <c r="A19" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D19" s="2"/>

--- a/LoowooTech.Land.Zhoushan.Web/templates/舟山整理/土地征收-导出.xlsx
+++ b/LoowooTech.Land.Zhoushan.Web/templates/舟山整理/土地征收-导出.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19095" windowHeight="7830"/>
+    <workbookView windowWidth="19005" windowHeight="10950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,9 +16,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
-  <si>
-    <t>{Form=4}</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
+  <si>
+    <t>{Form=5} 5</t>
   </si>
   <si>
     <t>土地征收情况（亩）</t>
@@ -30,7 +30,7 @@
     <t>{Rate}同比%</t>
   </si>
   <si>
-    <t>{Node=37}</t>
+    <t>{Node=40}</t>
   </si>
   <si>
     <t>{Value=1}</t>
@@ -39,22 +39,22 @@
     <t>{RateValue=1}</t>
   </si>
   <si>
-    <t xml:space="preserve">    其中：{Node=68}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          {Node=69}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    {Node=38}</t>
-  </si>
-  <si>
-    <t>{Value=5}</t>
+    <t xml:space="preserve">    其中：{Node=41}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          {Node=42}</t>
   </si>
   <si>
     <t xml:space="preserve">    {Node=43}</t>
   </si>
   <si>
-    <t>{Value=7}</t>
+    <t>{Value=4}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    {Node=44}</t>
+  </si>
+  <si>
+    <t>{Value=6}</t>
   </si>
   <si>
     <t>分区土地征收情况（亩）</t>
@@ -66,31 +66,37 @@
     <t>{Area=1}</t>
   </si>
   <si>
-    <t>{Value=1 Node=37}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    其中：{Area=2}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          {Area=9}</t>
+    <t>{Value=1 Node=40}</t>
+  </si>
+  <si>
+    <t>{RateValue=1 Node=40}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    其中:{Area=6}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          {Area=7}</t>
+  </si>
+  <si>
+    <t>{Area=2}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    其中：{Area=8}</t>
   </si>
   <si>
     <t>{Area=3}</t>
   </si>
   <si>
-    <t xml:space="preserve">    其中：{Area=10}</t>
+    <t xml:space="preserve">    其中：{Area=9}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          {Area=10}</t>
+  </si>
+  <si>
+    <t>{Area=4}</t>
   </si>
   <si>
     <t>{Area=5}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    其中：{Area=11}</t>
-  </si>
-  <si>
-    <t>{Area=4}</t>
-  </si>
-  <si>
-    <t>{Area=6}</t>
   </si>
 </sst>
 </file>
@@ -98,10 +104,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -113,12 +119,19 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
+      <sz val="12"/>
+      <color theme="0"/>
       <name val="黑体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF0099FF"/>
+      <name val="黑体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -126,42 +139,142 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="10"/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -174,115 +287,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -291,25 +297,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF0099FF"/>
+        <bgColor indexed="12"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="12"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -321,73 +441,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,92 +499,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -495,7 +513,25 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color auto="1"/>
+        <color rgb="FF0099FF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF3399FF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -516,16 +552,31 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -550,11 +601,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -567,36 +624,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -605,10 +632,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -617,169 +644,172 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -837,6 +867,7 @@
   <colors>
     <mruColors>
       <color rgb="000000FF"/>
+      <color rgb="003399FF"/>
     </mruColors>
   </colors>
 </styleSheet>
@@ -1104,7 +1135,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1114,7 +1145,7 @@
     <col min="3" max="3" width="13.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" ht="20" customHeight="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1134,7 +1165,7 @@
       </c>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" ht="14.25" spans="1:4">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -1188,7 +1219,7 @@
       </c>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" ht="14.25" spans="1:4">
       <c r="A8" s="6" t="s">
         <v>11</v>
       </c>
@@ -1201,135 +1232,141 @@
       <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
+    <row r="10" ht="14.25" spans="1:4">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="9" t="s">
+    <row r="11" ht="22.5" spans="1:4">
+      <c r="A11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="9" t="s">
-        <v>6</v>
+      <c r="C11" s="8" t="s">
+        <v>17</v>
       </c>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="9" t="s">
+    <row r="12" ht="22.5" spans="1:4">
+      <c r="A12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" ht="22.5" spans="1:4">
+      <c r="A13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="9" t="s">
+      <c r="C13" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" ht="22.5" spans="1:4">
+      <c r="A14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="9" t="s">
+      <c r="C14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" ht="22.5" spans="1:4">
+      <c r="A15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="9" t="s">
+      <c r="C15" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" ht="22.5" spans="1:4">
+      <c r="A16" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="9" t="s">
+      <c r="C16" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" ht="22.5" spans="1:4">
+      <c r="A17" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="9" t="s">
+      <c r="C17" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" ht="22.5" spans="1:4">
+      <c r="A18" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="9" t="s">
+      <c r="C18" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" ht="22.5" spans="1:4">
+      <c r="A19" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="10" t="s">
+      <c r="C19" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" ht="23.25" spans="1:4">
+      <c r="A20" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
+      <c r="C20" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="D20" s="2"/>
     </row>
   </sheetData>
